--- a/inst/extdata/Default_locations.xlsx
+++ b/inst/extdata/Default_locations.xlsx
@@ -2,85 +2,86 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aRmel package\aRmel\inst\extdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolas\Documents\R\proteoCraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9540" windowHeight="2940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
     <sheet name="Default_folders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Search folder</t>
+  </si>
+  <si>
+    <t>Folder in which you run your MS file searches.</t>
+  </si>
   <si>
     <t>Temporary folder</t>
   </si>
   <si>
+    <t>~/proteoCraft</t>
+  </si>
+  <si>
+    <t>Temporary folder, where R analyses will run. Use a short path, as these scripts can fail if paths become too long for the system's limit.</t>
+  </si>
+  <si>
     <t>Results delivery folder</t>
   </si>
   <si>
+    <t>D:/groups</t>
+  </si>
+  <si>
+    <t>Shared folder where final analyses can be delivered to the local research groups.</t>
+  </si>
+  <si>
     <t>Archive folder</t>
   </si>
   <si>
-    <t>Folder</t>
-  </si>
-  <si>
-    <t>D:/groups_temp</t>
-  </si>
-  <si>
-    <t>D:/groups</t>
-  </si>
-  <si>
-    <t>Q:/MS/Acquired data</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Help</t>
-  </si>
-  <si>
-    <t>Folder in which you run your MS file searches.</t>
-  </si>
-  <si>
-    <t>Temporary folder, where R analyses will run. Use a short path, as these scripts can fail if paths become too long for the system's limit.</t>
-  </si>
-  <si>
-    <t>Shared folder where final analyses can be delivered to the local research groups.</t>
-  </si>
-  <si>
     <t>Usually a server location where raw MS data and possibly finalized analyses are safely stored and backed up.</t>
   </si>
   <si>
-    <t>Search folder</t>
-  </si>
-  <si>
     <t>Server share</t>
   </si>
   <si>
     <t>Folder for sharing data within the team.</t>
   </si>
   <si>
+    <t>Fasta files</t>
+  </si>
+  <si>
     <t>D:/Fasta_databases</t>
   </si>
   <si>
     <t>Folder where you save your Fasta databases. We recommend creating a single folder per organism of interest. In it, save any relevant Fasta + the corresponding, similarly named UniProtKB annotation txt file.</t>
   </si>
   <si>
-    <t>Fasta files</t>
+    <t>D:/Searches</t>
+  </si>
+  <si>
+    <t>B:/Mass_Spec/Acquired_data_v2</t>
+  </si>
+  <si>
+    <t>B:/Mass_Spec/Projects</t>
   </si>
 </sst>
 </file>
@@ -90,7 +91,7 @@
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,25 +100,23 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -140,11 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -174,45 +172,41 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -241,13 +235,9 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
         <a:font script="Thai" typeface="Tahoma"/>
@@ -285,142 +275,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -429,10 +443,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" customWidth="1"/>
@@ -441,78 +455,83 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/inst/extdata/Default_locations.xlsx
+++ b/inst/extdata/Default_locations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anicolas\Documents\R\proteoCraft\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\aRmel_package\proteoCraft\inst\extdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23940" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Default_folders" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>Results delivery folder</t>
   </si>
   <si>
-    <t>D:/groups</t>
-  </si>
-  <si>
     <t>Shared folder where final analyses can be delivered to the local research groups.</t>
   </si>
   <si>
@@ -69,19 +66,22 @@
     <t>Fasta files</t>
   </si>
   <si>
-    <t>D:/Fasta_databases</t>
-  </si>
-  <si>
     <t>Folder where you save your Fasta databases. We recommend creating a single folder per organism of interest. In it, save any relevant Fasta + the corresponding, similarly named UniProtKB annotation txt file.</t>
   </si>
   <si>
     <t>D:/Searches</t>
   </si>
   <si>
-    <t>B:/Mass_Spec/Acquired_data_v2</t>
-  </si>
-  <si>
-    <t>B:/Mass_Spec/Projects</t>
+    <t>B:/Proteomics/Archive</t>
+  </si>
+  <si>
+    <t>B:/Proteomics/Projects</t>
+  </si>
+  <si>
+    <t>D:/Organisms</t>
+  </si>
+  <si>
+    <t>D:/Projects_data</t>
   </si>
 </sst>
 </file>
@@ -443,7 +443,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +469,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -491,43 +491,43 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/Default_locations.xlsx
+++ b/inst/extdata/Default_locations.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Default_folders" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Folder</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Archive folder</t>
   </si>
   <si>
-    <t>Usually a server location where raw MS data and possibly finalized analyses are safely stored and backed up.</t>
-  </si>
-  <si>
     <t>Server share</t>
   </si>
   <si>
@@ -82,6 +79,18 @@
   </si>
   <si>
     <t>D:/Projects_data</t>
+  </si>
+  <si>
+    <t>Usually a server location where raw MS data may be safely stored and backed up.</t>
+  </si>
+  <si>
+    <t>Archive folder (searches)</t>
+  </si>
+  <si>
+    <t>B:/group/mspecgrp/Archive/Groups_temp</t>
+  </si>
+  <si>
+    <t>Other server location where search results may be archived.</t>
   </si>
 </sst>
 </file>
@@ -440,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +478,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -491,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
@@ -502,33 +511,77 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/Default_locations.xlsx
+++ b/inst/extdata/Default_locations.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Folder</t>
   </si>
@@ -91,13 +91,22 @@
   </si>
   <si>
     <t>Other server location where search results may be archived.</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>C:/PROGRA~1/Python310/python.exe</t>
+  </si>
+  <si>
+    <t>Location of the Python executable to use - some parts of these workflows will run some python code.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,6 +136,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -148,11 +169,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +475,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +573,17 @@
         <v>14</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
